--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_21.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,491 +508,344 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_21_1</t>
+          <t>model_1_21_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9876380447231961</v>
+        <v>0.9174460452333417</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7268868340944669</v>
+        <v>0.7089246558570986</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7016423366031386</v>
+        <v>0.6384369243643179</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9964709192421537</v>
+        <v>0.8681206144141222</v>
       </c>
       <c r="F2" t="n">
-        <v>0.051880481795943</v>
+        <v>0.3464612880044338</v>
       </c>
       <c r="G2" t="n">
-        <v>1.826308997980795</v>
+        <v>1.946422166562302</v>
       </c>
       <c r="H2" t="n">
-        <v>1.067208062199267</v>
+        <v>1.293290156917157</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02500445794480569</v>
+        <v>0.4241682245007553</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5779103242542144</v>
+        <v>1.457702312806279</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2277728732662057</v>
+        <v>0.5886096227589502</v>
       </c>
       <c r="L2" t="n">
-        <v>1.007236266503495</v>
+        <v>0.7169578693714573</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2374696360359961</v>
+        <v>0.6136679529896917</v>
       </c>
       <c r="N2" t="n">
-        <v>135.917625265679</v>
+        <v>36.11996837904915</v>
       </c>
       <c r="O2" t="n">
-        <v>215.144553882112</v>
+        <v>56.84085740180856</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_21_2</t>
+          <t>model_1_21_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9878249005708616</v>
+        <v>0.9108277729747675</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7268849749603757</v>
+        <v>0.7055378828511665</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7022872152762427</v>
+        <v>0.6410859075002102</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9963661328111412</v>
+        <v>0.8114740021359468</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05109628777596711</v>
+        <v>0.3742367608760952</v>
       </c>
       <c r="G3" t="n">
-        <v>1.826321430019023</v>
+        <v>1.969069533247626</v>
       </c>
       <c r="H3" t="n">
-        <v>1.064901368577787</v>
+        <v>1.283814897836937</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02574689714844659</v>
+        <v>0.6063626808009016</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5692393674683999</v>
+        <v>1.458963639324938</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2260448800038769</v>
+        <v>0.6117489361462717</v>
       </c>
       <c r="L3" t="n">
-        <v>1.007126887470715</v>
+        <v>0.6942666501992028</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2356680785230509</v>
+        <v>0.6377923548528934</v>
       </c>
       <c r="N3" t="n">
-        <v>135.9480868613484</v>
+        <v>35.96573326277737</v>
       </c>
       <c r="O3" t="n">
-        <v>215.1750154777815</v>
+        <v>56.68662228553678</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_21_0</t>
+          <t>model_1_21_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.98744178958213</v>
+        <v>0.9093957116797181</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7268848082673712</v>
+        <v>0.7049981350778356</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7009762961561896</v>
+        <v>0.6417238280498427</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9965612061484437</v>
+        <v>0.7993991116358032</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05270412263959983</v>
+        <v>0.3802468157812353</v>
       </c>
       <c r="G4" t="n">
-        <v>1.826322544695912</v>
+        <v>1.9726788290932</v>
       </c>
       <c r="H4" t="n">
-        <v>1.069590450258759</v>
+        <v>1.281533093019661</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02436475165690732</v>
+        <v>0.6451995683230358</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5866565315430534</v>
+        <v>1.458758244080242</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2295737847394598</v>
+        <v>0.6166415618341301</v>
       </c>
       <c r="L4" t="n">
-        <v>1.00735114756168</v>
+        <v>0.6893567257590336</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2393472160390674</v>
+        <v>0.6428932697454154</v>
       </c>
       <c r="N4" t="n">
-        <v>135.8861231960782</v>
+        <v>35.93386944378329</v>
       </c>
       <c r="O4" t="n">
-        <v>215.1130518125113</v>
+        <v>56.6547584665427</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_21_3</t>
+          <t>model_1_21_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9880025680932734</v>
+        <v>0.8882137849108069</v>
       </c>
       <c r="C5" t="n">
-        <v>0.726879207933727</v>
+        <v>0.7039817667853958</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7029120547306891</v>
+        <v>0.6528461615257845</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9962472660242575</v>
+        <v>0.6182040981028646</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05035065519149137</v>
+        <v>0.4691428311388973</v>
       </c>
       <c r="G5" t="n">
-        <v>1.826359994152777</v>
+        <v>1.97947528854469</v>
       </c>
       <c r="H5" t="n">
-        <v>1.062666354079506</v>
+        <v>1.241749151086166</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02658909934715144</v>
+        <v>1.227983350922696</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5606508606592041</v>
+        <v>1.424410436094111</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2243895166702121</v>
+        <v>0.6849400201031455</v>
       </c>
       <c r="L5" t="n">
-        <v>1.007022886969791</v>
+        <v>0.6167329768370524</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2339422429451974</v>
+        <v>0.7140993347802419</v>
       </c>
       <c r="N5" t="n">
-        <v>135.9774872943232</v>
+        <v>35.51369602578759</v>
       </c>
       <c r="O5" t="n">
-        <v>215.2044159107562</v>
+        <v>56.234585048547</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_21_4</t>
+          <t>model_1_21_3</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9881712840866765</v>
+        <v>0.9020046701413871</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7268697165940535</v>
+        <v>0.7031430519192743</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7035167907400826</v>
+        <v>0.6454136274854461</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9961146906645812</v>
+        <v>0.7371483607839624</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0496425902593314</v>
+        <v>0.4112654360072731</v>
       </c>
       <c r="G6" t="n">
-        <v>1.826423462784878</v>
+        <v>1.985083778716372</v>
       </c>
       <c r="H6" t="n">
-        <v>1.060503248438514</v>
+        <v>1.268334894385372</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02752843036080811</v>
+        <v>0.8454188091494942</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5521388842840421</v>
+        <v>1.454458436465408</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2228061719507146</v>
+        <v>0.6412998019703992</v>
       </c>
       <c r="L6" t="n">
-        <v>1.006924126388287</v>
+        <v>0.6640160119133272</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2322914919630155</v>
+        <v>0.6686012622138793</v>
       </c>
       <c r="N6" t="n">
-        <v>136.0058122782362</v>
+        <v>35.77703288648552</v>
       </c>
       <c r="O6" t="n">
-        <v>215.2327408946692</v>
+        <v>56.49792190924493</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_21_5</t>
+          <t>model_1_21_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9883313089025197</v>
+        <v>0.9005259818334146</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7268566004840629</v>
+        <v>0.7029675059450875</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7041021550322523</v>
+        <v>0.6462304819135704</v>
       </c>
       <c r="E7" t="n">
-        <v>0.995968903619104</v>
+        <v>0.7246094092094048</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04897100034015141</v>
+        <v>0.4174711745110827</v>
       </c>
       <c r="G7" t="n">
-        <v>1.826511170272779</v>
+        <v>1.986257655454074</v>
       </c>
       <c r="H7" t="n">
-        <v>1.058409434306795</v>
+        <v>1.265413053459912</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02856136961543677</v>
+        <v>0.8857482723393092</v>
       </c>
       <c r="J7" t="n">
-        <v>0.543700483621792</v>
+        <v>1.452817798192496</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2212939229625419</v>
+        <v>0.6461200929479618</v>
       </c>
       <c r="L7" t="n">
-        <v>1.006830453325354</v>
+        <v>0.6589462234288501</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2307148634046293</v>
+        <v>0.6736267629577346</v>
       </c>
       <c r="N7" t="n">
-        <v>136.0330539717294</v>
+        <v>35.74707956032407</v>
       </c>
       <c r="O7" t="n">
-        <v>215.2599825881625</v>
+        <v>56.46796858308348</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_21_6</t>
+          <t>model_1_21_5</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9884828051856287</v>
+        <v>0.8990621249830014</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7268400472551912</v>
+        <v>0.7026530133629141</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7046682700337922</v>
+        <v>0.6470613644196358</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9958102954469068</v>
+        <v>0.7121396482678348</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04833520284841205</v>
+        <v>0.4236146685602996</v>
       </c>
       <c r="G8" t="n">
-        <v>1.826621861790464</v>
+        <v>1.988360668799172</v>
       </c>
       <c r="H8" t="n">
-        <v>1.05638447377152</v>
+        <v>1.262441034913052</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0296851498980469</v>
+        <v>0.9258551953056002</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5353410081784566</v>
+        <v>1.450872695802903</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2198526844239388</v>
+        <v>0.6508568725613179</v>
       </c>
       <c r="L8" t="n">
-        <v>1.006741772574266</v>
+        <v>0.6539272856560049</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2292122683576629</v>
+        <v>0.6785651970857169</v>
       </c>
       <c r="N8" t="n">
-        <v>136.0591902927108</v>
+        <v>35.71786207505023</v>
       </c>
       <c r="O8" t="n">
-        <v>215.2861189091438</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>model_1_21_7</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9886260125937059</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.7268199630472154</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.7052162950965182</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.9956392571084116</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.04773419199200391</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.826756164981679</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1.054424219898468</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.03089700115204361</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5286590654986658</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.2184815598443125</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.006657943847587</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.2277827721660627</v>
-      </c>
-      <c r="N9" t="n">
-        <v>136.0842146492524</v>
-      </c>
-      <c r="O9" t="n">
-        <v>215.3111432656854</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>model_1_21_8</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9887611794077075</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7267965794661528</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.7057458107542737</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.9954561550584378</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.04716692578886648</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.826912531095916</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.052530173093759</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.03219432694941964</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5256601772474141</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.2171794782866615</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.006578821810122</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.2264252583008221</v>
-      </c>
-      <c r="N10" t="n">
-        <v>136.1081247136503</v>
-      </c>
-      <c r="O10" t="n">
-        <v>215.3350533300834</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>model_1_21_9</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9888885290367393</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.72677004712786</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.706257834875806</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.9952614315720406</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.04663246663877568</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.827089952964249</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1.050698692499902</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.03357399365601465</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.522694894038311</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.2159455177556961</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.006504275685811</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.2251387655154031</v>
-      </c>
-      <c r="N11" t="n">
-        <v>136.1309165429059</v>
-      </c>
-      <c r="O11" t="n">
-        <v>215.357845159339</v>
+        <v>56.43875109780964</v>
       </c>
     </row>
   </sheetData>
